--- a/CE06ISSP/Omaha_Cal_Info_CE06ISSP_00002.xlsx
+++ b/CE06ISSP/Omaha_Cal_Info_CE06ISSP_00002.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="980" windowWidth="25600" windowHeight="16060" tabRatio="579"/>
+    <workbookView xWindow="885" yWindow="975" windowWidth="25605" windowHeight="16065" tabRatio="579"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Asset_Cal_Info!$A$1:$G$51</definedName>
     <definedName name="Workbook1" localSheetId="1">Asset_Cal_Info!$F$5:$F$5</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="101">
   <si>
     <t>Ref Des</t>
   </si>
@@ -358,9 +358,6 @@
     <t>124° 15.9204' W</t>
   </si>
   <si>
-    <t>29 m</t>
-  </si>
-  <si>
     <t>Miss Linda</t>
   </si>
 </sst>
@@ -369,11 +366,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="168" formatCode="0.000E+00"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="38" x14ac:knownFonts="1">
     <font>
@@ -610,17 +607,20 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12.1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -747,14 +747,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -1284,7 +1284,7 @@
     <xf numFmtId="14" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1303,10 +1303,10 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1353,7 +1353,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1371,7 +1371,7 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="25" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="25" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="25" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="25" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1945,7 +1945,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -2290,27 +2290,27 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="28">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>62</v>
       </c>
@@ -2370,11 +2370,11 @@
       <c r="H2" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="42">
+        <v>29</v>
+      </c>
+      <c r="J2" s="42" t="s">
         <v>100</v>
-      </c>
-      <c r="J2" s="42" t="s">
-        <v>101</v>
       </c>
       <c r="L2" s="8">
         <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
@@ -2385,25 +2385,25 @@
         <v>-124.26533999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1">
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1">
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1">
+    <row r="6" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
@@ -2412,7 +2412,7 @@
         <v>47.131019999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1">
+    <row r="7" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
@@ -2421,61 +2421,61 @@
         <v>-124.26533999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1">
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1">
+    <row r="9" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
       <c r="E9" s="12"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1">
+    <row r="10" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1">
+    <row r="11" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
       <c r="E11" s="12"/>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1">
+    <row r="12" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:13" s="9" customFormat="1">
+    <row r="13" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:13" s="9" customFormat="1">
+    <row r="14" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:13" s="9" customFormat="1">
+    <row r="15" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:13" s="9" customFormat="1">
+    <row r="16" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="12"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="3:6" s="9" customFormat="1">
+    <row r="17" spans="3:6" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
@@ -2499,22 +2499,22 @@
   </sheetPr>
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="57" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="57" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="57" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="57" customWidth="1"/>
     <col min="4" max="4" width="17" style="7" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="37.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28">
+    <row r="1" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -2546,7 +2546,7 @@
       <c r="F2" s="18"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:13" s="7" customFormat="1">
+    <row r="3" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>64</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="7" customFormat="1">
+    <row r="4" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>64</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="7" customFormat="1">
+    <row r="5" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>64</v>
       </c>
@@ -2619,7 +2619,7 @@
       <c r="L5" s="30"/>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1">
+    <row r="6" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>64</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="7" customFormat="1">
+    <row r="7" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="53"/>
       <c r="C7" s="54"/>
@@ -2651,7 +2651,7 @@
       <c r="F7" s="21"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:13" s="7" customFormat="1">
+    <row r="8" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>63</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="7" customFormat="1">
+    <row r="9" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>63</v>
       </c>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1">
+    <row r="10" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>63</v>
       </c>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:13" s="7" customFormat="1">
+    <row r="11" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>63</v>
       </c>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:13" s="7" customFormat="1">
+    <row r="12" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>63</v>
       </c>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:13" s="7" customFormat="1">
+    <row r="13" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>63</v>
       </c>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:13" s="7" customFormat="1">
+    <row r="14" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>63</v>
       </c>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:13" s="7" customFormat="1">
+    <row r="15" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>63</v>
       </c>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:13" s="7" customFormat="1">
+    <row r="16" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="53"/>
       <c r="C16" s="54"/>
@@ -2830,7 +2830,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" s="7" customFormat="1">
+    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>65</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1">
+    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>65</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1">
+    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="53"/>
       <c r="C19" s="54"/>
@@ -2885,7 +2885,7 @@
       <c r="F19" s="21"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1">
+    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>66</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1">
+    <row r="21" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>66</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1">
+    <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>66</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1">
+    <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>66</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="7" customFormat="1">
+    <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>66</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1">
+    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>66</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1">
+    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>66</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1">
+    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="53"/>
       <c r="C27" s="54"/>
@@ -3055,7 +3055,7 @@
       <c r="F27" s="21"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1">
+    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>67</v>
       </c>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1">
+    <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>67</v>
       </c>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1">
+    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>67</v>
       </c>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:7" s="7" customFormat="1">
+    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="53"/>
       <c r="C31" s="54"/>
@@ -3127,7 +3127,7 @@
       <c r="F31" s="21"/>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="1:7" s="7" customFormat="1">
+    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>68</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1">
+    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>68</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="7" customFormat="1">
+    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>68</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="7" customFormat="1">
+    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>68</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="7" customFormat="1">
+    <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>68</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="7" customFormat="1">
+    <row r="37" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>68</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="7" customFormat="1">
+    <row r="38" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>68</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="7" customFormat="1">
+    <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>68</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="7" customFormat="1">
+    <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>68</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="7" customFormat="1">
+    <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>68</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="7" customFormat="1">
+    <row r="42" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="53"/>
       <c r="C42" s="54"/>
@@ -3366,7 +3366,7 @@
       <c r="F42" s="21"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:7" s="7" customFormat="1">
+    <row r="43" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>69</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="7" customFormat="1">
+    <row r="44" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>69</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="7" customFormat="1">
+    <row r="45" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
       <c r="B45" s="53"/>
       <c r="C45" s="54"/>
@@ -3421,7 +3421,7 @@
       <c r="F45" s="21"/>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="1:7" s="7" customFormat="1">
+    <row r="46" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>70</v>
       </c>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="G46" s="18"/>
     </row>
-    <row r="47" spans="1:7" s="7" customFormat="1">
+    <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>70</v>
       </c>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="G47" s="18"/>
     </row>
-    <row r="48" spans="1:7" s="7" customFormat="1">
+    <row r="48" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>70</v>
       </c>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="G48" s="18"/>
     </row>
-    <row r="49" spans="1:7" s="13" customFormat="1">
+    <row r="49" spans="1:7" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
       <c r="B49" s="56"/>
       <c r="C49" s="52"/>
@@ -3493,7 +3493,7 @@
       <c r="F49" s="27"/>
       <c r="G49" s="26"/>
     </row>
-    <row r="50" spans="1:7" s="7" customFormat="1">
+    <row r="50" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>71</v>
       </c>
@@ -3510,19 +3510,19 @@
       <c r="F50" s="29"/>
       <c r="G50" s="18"/>
     </row>
-    <row r="51" spans="1:7" s="7" customFormat="1">
+    <row r="51" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="57"/>
       <c r="C51" s="57"/>
     </row>
-    <row r="52" spans="1:7" s="7" customFormat="1">
+    <row r="52" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="57"/>
       <c r="C52" s="57"/>
     </row>
-    <row r="53" spans="1:7" s="7" customFormat="1">
+    <row r="53" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="57"/>
       <c r="C53" s="57"/>
     </row>
-    <row r="54" spans="1:7" s="7" customFormat="1">
+    <row r="54" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="57"/>
       <c r="C54" s="57"/>
     </row>
@@ -3546,9 +3546,9 @@
       <selection sqref="A1:AH86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-2.7306E-2</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>2.2003000000000002E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-2.1257999999999999E-2</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>1.6747000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-1.2599000000000001E-2</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>1.111E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-4.3949999999999996E-3</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>3.9740000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.9880000000000002E-3</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>-3.1E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7.7140000000000004E-3</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>-3.039E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.038E-2</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>-4.8900000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.0441000000000001E-2</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>-5.3030000000000004E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9.8150000000000008E-3</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>-5.378E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9.7280000000000005E-3</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>-5.0800000000000003E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9.1170000000000001E-3</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>-5.104E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9.0360000000000006E-3</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>-4.7270000000000003E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8.0409999999999995E-3</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>-4.3819999999999996E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8.1829999999999993E-3</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>-4.5630000000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.2159999999999993E-3</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>-4.4270000000000004E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7.6169999999999996E-3</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>-4.1739999999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6.7520000000000002E-3</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>-4.1269999999999996E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7.0699999999999999E-3</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>-4.1380000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6.8310000000000003E-3</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>-4.1419999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6.4079999999999996E-3</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>-4.2430000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6.4419999999999998E-3</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>-4.2009999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6.2509999999999996E-3</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>-4.0699999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6.1939999999999999E-3</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>-3.9050000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5.6759999999999996E-3</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>-3.9870000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5.3439999999999998E-3</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>-3.7260000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5.2090000000000001E-3</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>-3.5729999999999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4.9170000000000004E-3</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>-3.578E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4.7239999999999999E-3</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>-3.392E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4.0660000000000002E-3</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>-3.2490000000000002E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4.2430000000000002E-3</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>-3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3.777E-3</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>-3.0130000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3.607E-3</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>-2.7659999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3.2729999999999999E-3</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>-2.5219999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3.0950000000000001E-3</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>-2.2269999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3.0699999999999998E-3</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>-1.8309999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3.0349999999999999E-3</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>-1.588E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3.2399999999999998E-3</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>-1.4289999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3.1510000000000002E-3</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>-1.129E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3.0019999999999999E-3</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>-1.0009999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2.911E-3</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>-9.6299999999999999E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2.9169999999999999E-3</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>-9.0200000000000002E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2.4870000000000001E-3</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>-8.8800000000000001E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2.565E-3</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>-8.7500000000000002E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2.1519999999999998E-3</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>-9.0399999999999996E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1.918E-3</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>1.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2.2130000000000001E-3</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>1.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2.3509999999999998E-3</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>-8.2999999999999998E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2.6870000000000002E-3</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>-1.3200000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2.7929999999999999E-3</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>-3.5399999999999999E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2.7260000000000001E-3</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>-4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2.859E-3</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>-4.6200000000000001E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2.8110000000000001E-3</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>-6.5300000000000004E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2.5959999999999998E-3</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>-6.4199999999999999E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2.3879999999999999E-3</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>-6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2.1250000000000002E-3</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>-7.5299999999999998E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1.838E-3</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>-7.6499999999999995E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.5709999999999999E-3</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>-8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1.358E-3</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>-8.6399999999999997E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1.088E-3</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>-9.5699999999999995E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>8.8999999999999995E-4</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>-9.4300000000000004E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4.75E-4</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>-1.0709999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2.5300000000000002E-4</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>-1.163E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2.23E-4</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>-1.232E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-2.13E-4</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>-1.2899999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-3.5300000000000002E-4</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>-1.341E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-6.9099999999999999E-4</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>-1.371E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-6.6200000000000005E-4</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>-1.4250000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-8.6600000000000002E-4</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>-1.436E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-9.8299999999999993E-4</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>-1.5219999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-1.134E-3</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>-1.578E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-1.106E-3</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>-1.518E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-1.542E-3</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>-1.5120000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-1.658E-3</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>-1.4729999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-1.7930000000000001E-3</v>
       </c>
@@ -11244,7 +11244,7 @@
         <v>-1.3110000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-1.9610000000000001E-3</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v>-1.0709999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-1.92E-3</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>-8.12E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-2.1649999999999998E-3</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>-5.9800000000000001E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-2.274E-3</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>-3.3300000000000002E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-2.4229999999999998E-3</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>-2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-2.5240000000000002E-3</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-2.5490000000000001E-3</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>2.6899999999999998E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-2.5799999999999998E-3</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>4.5600000000000003E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-2.421E-3</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>4.3100000000000001E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-2.4420000000000002E-3</v>
       </c>
@@ -12284,7 +12284,7 @@
         <v>4.5800000000000002E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-2.117E-3</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>4.8200000000000001E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-2.3029999999999999E-3</v>
       </c>
@@ -12510,9 +12510,9 @@
       <selection sqref="A1:AH86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2.818E-2</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>-1.3003000000000001E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.9113999999999999E-2</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>-1.0573000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.0387E-2</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>-9.0050000000000009E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6.8069999999999997E-3</v>
       </c>
@@ -12928,7 +12928,7 @@
         <v>-8.1989999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.4920000000000004E-3</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>-6.4209999999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3.483E-3</v>
       </c>
@@ -13136,7 +13136,7 @@
         <v>-5.2810000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.4060000000000002E-3</v>
       </c>
@@ -13240,7 +13240,7 @@
         <v>-4.2729999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.4300000000000001E-3</v>
       </c>
@@ -13344,7 +13344,7 @@
         <v>-3.3270000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-1.129E-3</v>
       </c>
@@ -13448,7 +13448,7 @@
         <v>-2.5100000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-1.812E-3</v>
       </c>
@@ -13552,7 +13552,7 @@
         <v>-1.8680000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-2.7070000000000002E-3</v>
       </c>
@@ -13656,7 +13656,7 @@
         <v>-1.2830000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-4.6169999999999996E-3</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>-7.1100000000000004E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-4.8739999999999999E-3</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>-5.8999999999999998E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-5.3109999999999997E-3</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>6.6600000000000003E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-6.7479999999999997E-3</v>
       </c>
@@ -14072,7 +14072,7 @@
         <v>9.2900000000000003E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-6.149E-3</v>
       </c>
@@ -14176,7 +14176,7 @@
         <v>1.4610000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-6.437E-3</v>
       </c>
@@ -14280,7 +14280,7 @@
         <v>1.7589999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-7.2789999999999999E-3</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>2.1549999999999998E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-7.6649999999999999E-3</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>2.1870000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-8.8280000000000008E-3</v>
       </c>
@@ -14592,7 +14592,7 @@
         <v>2.5990000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-9.3799999999999994E-3</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>2.6700000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-9.2580000000000006E-3</v>
       </c>
@@ -14800,7 +14800,7 @@
         <v>2.8349999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1.0026E-2</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>2.7989999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.0159E-2</v>
       </c>
@@ -15008,7 +15008,7 @@
         <v>2.8739999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-9.9780000000000008E-3</v>
       </c>
@@ -15112,7 +15112,7 @@
         <v>2.8479999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-1.0371E-2</v>
       </c>
@@ -15216,7 +15216,7 @@
         <v>2.7680000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-1.0656000000000001E-2</v>
       </c>
@@ -15320,7 +15320,7 @@
         <v>2.8119999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-1.0642E-2</v>
       </c>
@@ -15424,7 +15424,7 @@
         <v>2.7539999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-1.0969E-2</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>2.7669999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-1.1292E-2</v>
       </c>
@@ -15632,7 +15632,7 @@
         <v>2.771E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-1.0963000000000001E-2</v>
       </c>
@@ -15736,7 +15736,7 @@
         <v>2.5690000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-1.1731999999999999E-2</v>
       </c>
@@ -15840,7 +15840,7 @@
         <v>2.506E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-1.1818E-2</v>
       </c>
@@ -15944,7 +15944,7 @@
         <v>2.369E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-1.2111E-2</v>
       </c>
@@ -16048,7 +16048,7 @@
         <v>2.212E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1.2655E-2</v>
       </c>
@@ -16152,7 +16152,7 @@
         <v>2.1180000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-1.2838E-2</v>
       </c>
@@ -16256,7 +16256,7 @@
         <v>2.0839999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-1.2978999999999999E-2</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>2.0790000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-1.304E-2</v>
       </c>
@@ -16464,7 +16464,7 @@
         <v>2.0609999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-1.2704999999999999E-2</v>
       </c>
@@ -16568,7 +16568,7 @@
         <v>2.0560000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-1.2663000000000001E-2</v>
       </c>
@@ -16672,7 +16672,7 @@
         <v>2.0089999999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-1.2364999999999999E-2</v>
       </c>
@@ -16776,7 +16776,7 @@
         <v>2.032E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-1.2322E-2</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>2.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-1.1955E-2</v>
       </c>
@@ -16984,7 +16984,7 @@
         <v>2.1069999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-1.2149E-2</v>
       </c>
@@ -17088,7 +17088,7 @@
         <v>2.0170000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-7.4850000000000003E-3</v>
       </c>
@@ -17192,7 +17192,7 @@
         <v>8.8599999999999996E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-7.2389999999999998E-3</v>
       </c>
@@ -17296,7 +17296,7 @@
         <v>7.6999999999999996E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-7.123E-3</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>6.3500000000000004E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-6.8180000000000003E-3</v>
       </c>
@@ -17504,7 +17504,7 @@
         <v>5.2599999999999999E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-6.8339999999999998E-3</v>
       </c>
@@ -17608,7 +17608,7 @@
         <v>5.1099999999999995E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-6.881E-3</v>
       </c>
@@ -17712,7 +17712,7 @@
         <v>6.2399999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-6.9410000000000001E-3</v>
       </c>
@@ -17816,7 +17816,7 @@
         <v>6.7599999999999995E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-7.0809999999999996E-3</v>
       </c>
@@ -17920,7 +17920,7 @@
         <v>8.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-7.2399999999999999E-3</v>
       </c>
@@ -18024,7 +18024,7 @@
         <v>9.2699999999999998E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-7.4229999999999999E-3</v>
       </c>
@@ -18128,7 +18128,7 @@
         <v>1.114E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-7.6220000000000003E-3</v>
       </c>
@@ -18232,7 +18232,7 @@
         <v>1.3140000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-7.8150000000000008E-3</v>
       </c>
@@ -18336,7 +18336,7 @@
         <v>1.4549999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-8.0059999999999992E-3</v>
       </c>
@@ -18440,7 +18440,7 @@
         <v>1.5709999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-8.1650000000000004E-3</v>
       </c>
@@ -18544,7 +18544,7 @@
         <v>1.604E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-8.2880000000000002E-3</v>
       </c>
@@ -18648,7 +18648,7 @@
         <v>1.784E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-8.456E-3</v>
       </c>
@@ -18752,7 +18752,7 @@
         <v>1.8600000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-8.6499999999999997E-3</v>
       </c>
@@ -18856,7 +18856,7 @@
         <v>1.897E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-8.6359999999999996E-3</v>
       </c>
@@ -18960,7 +18960,7 @@
         <v>1.7960000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-8.2819999999999994E-3</v>
       </c>
@@ -19064,7 +19064,7 @@
         <v>1.9239999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-8.7810000000000006E-3</v>
       </c>
@@ -19168,7 +19168,7 @@
         <v>1.9659999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-8.659E-3</v>
       </c>
@@ -19272,7 +19272,7 @@
         <v>1.9350000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-8.5939999999999992E-3</v>
       </c>
@@ -19376,7 +19376,7 @@
         <v>1.9689999999999998E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-8.9849999999999999E-3</v>
       </c>
@@ -19480,7 +19480,7 @@
         <v>1.884E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-8.744E-3</v>
       </c>
@@ -19584,7 +19584,7 @@
         <v>1.934E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-8.9210000000000001E-3</v>
       </c>
@@ -19688,7 +19688,7 @@
         <v>1.913E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-8.9890000000000005E-3</v>
       </c>
@@ -19792,7 +19792,7 @@
         <v>1.8760000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-9.1999999999999998E-3</v>
       </c>
@@ -19896,7 +19896,7 @@
         <v>1.8259999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-9.391E-3</v>
       </c>
@@ -20000,7 +20000,7 @@
         <v>1.7700000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-9.4769999999999993E-3</v>
       </c>
@@ -20104,7 +20104,7 @@
         <v>1.686E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-9.5189999999999997E-3</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>1.614E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-9.5060000000000006E-3</v>
       </c>
@@ -20312,7 +20312,7 @@
         <v>1.4649999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-9.6299999999999997E-3</v>
       </c>
@@ -20416,7 +20416,7 @@
         <v>1.3699999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-9.3120000000000008E-3</v>
       </c>
@@ -20520,7 +20520,7 @@
         <v>1.3519999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-9.6340000000000002E-3</v>
       </c>
@@ -20624,7 +20624,7 @@
         <v>1.4059999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-9.502E-3</v>
       </c>
@@ -20728,7 +20728,7 @@
         <v>1.3519999999999999E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-9.3539999999999995E-3</v>
       </c>
@@ -20832,7 +20832,7 @@
         <v>1.4909999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-9.4149999999999998E-3</v>
       </c>
@@ -20936,7 +20936,7 @@
         <v>1.485E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-9.0530000000000003E-3</v>
       </c>
@@ -21040,7 +21040,7 @@
         <v>1.5479999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-8.7790000000000003E-3</v>
       </c>
@@ -21144,7 +21144,7 @@
         <v>1.5139999999999999E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-8.6960000000000006E-3</v>
       </c>
@@ -21248,7 +21248,7 @@
         <v>1.4729999999999999E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-8.8369999999999994E-3</v>
       </c>
@@ -21352,7 +21352,7 @@
         <v>1.6180000000000001E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-2.0132000000000001E-2</v>
       </c>

--- a/CE06ISSP/Omaha_Cal_Info_CE06ISSP_00002.xlsx
+++ b/CE06ISSP/Omaha_Cal_Info_CE06ISSP_00002.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\Ingest sheets\ingestion-csvs\CE06ISSP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="885" yWindow="975" windowWidth="25605" windowHeight="16065" tabRatio="579"/>
+    <workbookView xWindow="885" yWindow="975" windowWidth="25605" windowHeight="16065" tabRatio="579" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -21,7 +26,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Asset_Cal_Info!$A$1:$G$51</definedName>
     <definedName name="Workbook1" localSheetId="1">Asset_Cal_Info!$F$5:$F$5</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2289,8 +2294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2301,8 +2306,8 @@
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
     <col min="11" max="11" width="18.28515625" customWidth="1"/>
@@ -2494,13 +2499,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
